--- a/vol2.xlsx
+++ b/vol2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,10 +462,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.06</v>
+        <v>0.864</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>215.25</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -479,43 +479,20 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2x  40x50x15 cm  15 kg/ctn</t>
+          <t>15x  120x40x12 cm  14.35 kg/ctn</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.2</v>
+        <v>0.864</v>
       </c>
       <c r="B3" t="n">
-        <v>600</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5x  120x80x150 cm  120 kg/plt</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="B4" t="n">
-        <v>630</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+        <v>215.25</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vol2.xlsx
+++ b/vol2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,10 +462,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.050625</v>
+        <v>1.08</v>
       </c>
       <c r="B2" t="n">
-        <v>225</v>
+        <v>1800</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -479,20 +479,43 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>15x  15x15x15 cm  15 kg/ctn</t>
+          <t>45x  20x40x30 cm  40 kg/ctn</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.050625</v>
+        <v>1.2</v>
       </c>
       <c r="B3" t="n">
-        <v>225</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+        <v>720</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>12x  50x40x50 cm  60 kg/ctn</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2520</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
